--- a/FILTERED_homo_exons_reference_all_info.xlsx
+++ b/FILTERED_homo_exons_reference_all_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kellen\Downloads\primate_dfe_project\chimp_and_vervet_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4610E603-7CB1-4922-95F9-A350B667BA13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0A102B-6517-40A4-B807-0CD8BD70EAF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23508" yWindow="2328" windowWidth="15828" windowHeight="12204" xr2:uid="{AD9B5B23-CA46-439B-ABB4-863911519FF4}"/>
+    <workbookView xWindow="21480" yWindow="1452" windowWidth="15828" windowHeight="12204" xr2:uid="{AD9B5B23-CA46-439B-ABB4-863911519FF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2350" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1622" uniqueCount="564">
   <si>
     <t>#</t>
   </si>
@@ -2081,7 +2081,7 @@
   <dimension ref="A1:IMP93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:BW93"/>
+      <selection activeCell="A2" sqref="A2:BW93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2808,17 +2808,17 @@
       <c r="AM3">
         <v>1975</v>
       </c>
-      <c r="AN3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>78</v>
+      <c r="AN3">
+        <v>4.8007680000000004E-3</v>
+      </c>
+      <c r="AO3">
+        <v>4166</v>
+      </c>
+      <c r="AP3">
+        <v>4.3045890000000002E-3</v>
+      </c>
+      <c r="AQ3">
+        <v>70390</v>
       </c>
       <c r="AR3">
         <v>9488079</v>
@@ -2889,17 +2889,17 @@
       <c r="BN3">
         <v>2042</v>
       </c>
-      <c r="BO3" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP3" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ3" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR3" t="s">
-        <v>78</v>
+      <c r="BO3">
+        <v>1.5704584000000001E-2</v>
+      </c>
+      <c r="BP3">
+        <v>4712</v>
+      </c>
+      <c r="BQ3">
+        <v>3.4792775999999997E-2</v>
+      </c>
+      <c r="BR3">
+        <v>76970</v>
       </c>
       <c r="BS3">
         <v>122308820</v>
@@ -3047,17 +3047,17 @@
       <c r="AM4">
         <v>1381</v>
       </c>
-      <c r="AN4" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>78</v>
+      <c r="AN4">
+        <v>2.5817560000000002E-3</v>
+      </c>
+      <c r="AO4">
+        <v>5810</v>
+      </c>
+      <c r="AP4">
+        <v>3.3097819999999998E-3</v>
+      </c>
+      <c r="AQ4">
+        <v>132335</v>
       </c>
       <c r="AR4">
         <v>93007680</v>
@@ -3128,17 +3128,17 @@
       <c r="BN4">
         <v>3324</v>
       </c>
-      <c r="BO4" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP4" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ4" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR4" t="s">
-        <v>78</v>
+      <c r="BO4">
+        <v>2.6413756E-2</v>
+      </c>
+      <c r="BP4">
+        <v>5641</v>
+      </c>
+      <c r="BQ4">
+        <v>2.7373021000000001E-2</v>
+      </c>
+      <c r="BR4">
+        <v>139590</v>
       </c>
       <c r="BS4">
         <v>41098643</v>
@@ -3274,17 +3274,17 @@
       <c r="AM5">
         <v>2804</v>
       </c>
-      <c r="AN5" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>78</v>
+      <c r="AN5">
+        <v>2.0061139999999998E-3</v>
+      </c>
+      <c r="AO5">
+        <v>10468</v>
+      </c>
+      <c r="AP5">
+        <v>3.7522020000000001E-3</v>
+      </c>
+      <c r="AQ5">
+        <v>393369</v>
       </c>
       <c r="AR5">
         <v>100031074</v>
@@ -3355,17 +3355,17 @@
       <c r="BN5">
         <v>2764</v>
       </c>
-      <c r="BO5" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP5" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ5" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR5" t="s">
-        <v>78</v>
+      <c r="BO5">
+        <v>3.3235766E-2</v>
+      </c>
+      <c r="BP5">
+        <v>10591</v>
+      </c>
+      <c r="BQ5">
+        <v>3.0062508000000002E-2</v>
+      </c>
+      <c r="BR5">
+        <v>313081</v>
       </c>
       <c r="BS5">
         <v>34405282</v>
@@ -3501,17 +3501,17 @@
       <c r="AM6">
         <v>1972</v>
       </c>
-      <c r="AN6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>78</v>
+      <c r="AN6">
+        <v>3.224073E-3</v>
+      </c>
+      <c r="AO6">
+        <v>9305</v>
+      </c>
+      <c r="AP6">
+        <v>3.3497100000000001E-3</v>
+      </c>
+      <c r="AQ6">
+        <v>8956</v>
       </c>
       <c r="AR6">
         <v>102106830</v>
@@ -3582,17 +3582,17 @@
       <c r="BN6">
         <v>2250</v>
       </c>
-      <c r="BO6" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP6" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ6" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR6" t="s">
-        <v>78</v>
+      <c r="BO6">
+        <v>3.1897742999999999E-2</v>
+      </c>
+      <c r="BP6">
+        <v>8684</v>
+      </c>
+      <c r="BQ6">
+        <v>2.7835049999999999E-3</v>
+      </c>
+      <c r="BR6">
+        <v>9700</v>
       </c>
       <c r="BS6">
         <v>32812636</v>
@@ -3728,17 +3728,17 @@
       <c r="AM7">
         <v>2209</v>
       </c>
-      <c r="AN7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ7" t="s">
-        <v>78</v>
+      <c r="AN7">
+        <v>2.7593819999999999E-3</v>
+      </c>
+      <c r="AO7">
+        <v>19932</v>
+      </c>
+      <c r="AP7">
+        <v>3.5397010000000001E-3</v>
+      </c>
+      <c r="AQ7">
+        <v>159053</v>
       </c>
       <c r="AR7">
         <v>195765359</v>
@@ -3809,17 +3809,17 @@
       <c r="BN7">
         <v>2387</v>
       </c>
-      <c r="BO7" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP7" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ7" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR7" t="s">
-        <v>78</v>
+      <c r="BO7">
+        <v>3.9976069000000003E-2</v>
+      </c>
+      <c r="BP7">
+        <v>18386</v>
+      </c>
+      <c r="BQ7">
+        <v>3.5822136999999997E-2</v>
+      </c>
+      <c r="BR7">
+        <v>64904</v>
       </c>
       <c r="BS7">
         <v>14270112</v>
@@ -3955,17 +3955,17 @@
       <c r="AM8">
         <v>3879</v>
       </c>
-      <c r="AN8" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP8" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ8" t="s">
-        <v>78</v>
+      <c r="AN8">
+        <v>4.3729229999999999E-3</v>
+      </c>
+      <c r="AO8">
+        <v>5717</v>
+      </c>
+      <c r="AP8">
+        <v>4.906802E-3</v>
+      </c>
+      <c r="AQ8">
+        <v>32404</v>
       </c>
       <c r="AR8">
         <v>197036292</v>
@@ -4036,17 +4036,17 @@
       <c r="BN8">
         <v>3905</v>
       </c>
-      <c r="BO8" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP8" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ8" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR8" t="s">
-        <v>78</v>
+      <c r="BO8">
+        <v>3.2421479000000003E-2</v>
+      </c>
+      <c r="BP8">
+        <v>5922</v>
+      </c>
+      <c r="BQ8">
+        <v>5.0671018999999998E-2</v>
+      </c>
+      <c r="BR8">
+        <v>27570</v>
       </c>
       <c r="BS8">
         <v>13081019</v>
@@ -4182,17 +4182,17 @@
       <c r="AM9">
         <v>1092</v>
       </c>
-      <c r="AN9" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO9" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP9" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ9" t="s">
-        <v>78</v>
+      <c r="AN9">
+        <v>5.1542940000000002E-3</v>
+      </c>
+      <c r="AO9">
+        <v>14939</v>
+      </c>
+      <c r="AP9">
+        <v>6.1274509999999999E-3</v>
+      </c>
+      <c r="AQ9">
+        <v>16320</v>
       </c>
       <c r="AR9">
         <v>216346972</v>
@@ -4263,17 +4263,17 @@
       <c r="BN9">
         <v>126</v>
       </c>
-      <c r="BO9" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP9" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ9" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR9" t="s">
-        <v>78</v>
+      <c r="BO9">
+        <v>2.9792430000000002E-2</v>
+      </c>
+      <c r="BP9">
+        <v>12285</v>
+      </c>
+      <c r="BQ9">
+        <v>1.2671976999999999E-2</v>
+      </c>
+      <c r="BR9">
+        <v>22096</v>
       </c>
       <c r="BS9">
         <v>72702960</v>
@@ -4409,17 +4409,17 @@
       <c r="AM10">
         <v>1525</v>
       </c>
-      <c r="AN10" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO10" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP10" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ10" t="s">
-        <v>78</v>
+      <c r="AN10">
+        <v>3.2004920000000001E-3</v>
+      </c>
+      <c r="AO10">
+        <v>97485</v>
+      </c>
+      <c r="AP10">
+        <v>3.9204440000000004E-3</v>
+      </c>
+      <c r="AQ10">
+        <v>10458</v>
       </c>
       <c r="AR10">
         <v>26525561</v>
@@ -4490,17 +4490,17 @@
       <c r="BN10">
         <v>2025</v>
       </c>
-      <c r="BO10" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP10" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ10" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR10" t="s">
-        <v>78</v>
+      <c r="BO10">
+        <v>2.8081902999999998E-2</v>
+      </c>
+      <c r="BP10">
+        <v>75992</v>
+      </c>
+      <c r="BQ10">
+        <v>2.7294802999999999E-2</v>
+      </c>
+      <c r="BR10">
+        <v>10295</v>
       </c>
       <c r="BS10">
         <v>81569571</v>
@@ -4636,17 +4636,17 @@
       <c r="AM11">
         <v>3652</v>
       </c>
-      <c r="AN11" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO11" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP11" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ11" t="s">
-        <v>78</v>
+      <c r="AN11">
+        <v>1.17325E-3</v>
+      </c>
+      <c r="AO11">
+        <v>2557</v>
+      </c>
+      <c r="AP11">
+        <v>1.939058E-3</v>
+      </c>
+      <c r="AQ11">
+        <v>3610</v>
       </c>
       <c r="AR11">
         <v>29429976</v>
@@ -4717,17 +4717,17 @@
       <c r="BN11">
         <v>235</v>
       </c>
-      <c r="BO11" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP11" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ11" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR11" t="s">
-        <v>78</v>
+      <c r="BO11">
+        <v>2.4793388E-2</v>
+      </c>
+      <c r="BP11">
+        <v>2662</v>
+      </c>
+      <c r="BQ11">
+        <v>1.8503222E-2</v>
+      </c>
+      <c r="BR11">
+        <v>48424</v>
       </c>
       <c r="BS11">
         <v>78748646</v>
@@ -4863,17 +4863,17 @@
       <c r="AM12">
         <v>148</v>
       </c>
-      <c r="AN12" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO12" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP12" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ12" t="s">
-        <v>78</v>
+      <c r="AN12">
+        <v>4.5276179999999997E-3</v>
+      </c>
+      <c r="AO12">
+        <v>13252</v>
+      </c>
+      <c r="AP12">
+        <v>4.2727349999999997E-3</v>
+      </c>
+      <c r="AQ12">
+        <v>44468</v>
       </c>
       <c r="AR12">
         <v>47247949</v>
@@ -4944,17 +4944,17 @@
       <c r="BN12">
         <v>148</v>
       </c>
-      <c r="BO12" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP12" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ12" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR12" t="s">
-        <v>78</v>
+      <c r="BO12">
+        <v>3.5125256000000001E-2</v>
+      </c>
+      <c r="BP12">
+        <v>11217</v>
+      </c>
+      <c r="BQ12">
+        <v>3.1661986000000003E-2</v>
+      </c>
+      <c r="BR12">
+        <v>46649</v>
       </c>
       <c r="BS12">
         <v>60969347</v>
@@ -5090,17 +5090,17 @@
       <c r="AM13">
         <v>3871</v>
       </c>
-      <c r="AN13" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO13" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP13" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ13" t="s">
-        <v>78</v>
+      <c r="AN13">
+        <v>2.9798860000000002E-3</v>
+      </c>
+      <c r="AO13">
+        <v>24162</v>
+      </c>
+      <c r="AP13">
+        <v>5.2831889999999998E-3</v>
+      </c>
+      <c r="AQ13">
+        <v>39938</v>
       </c>
       <c r="AR13">
         <v>70717996</v>
@@ -5171,17 +5171,17 @@
       <c r="BN13">
         <v>3701</v>
       </c>
-      <c r="BO13" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP13" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ13" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR13" t="s">
-        <v>78</v>
+      <c r="BO13">
+        <v>3.4869188000000002E-2</v>
+      </c>
+      <c r="BP13">
+        <v>24004</v>
+      </c>
+      <c r="BQ13">
+        <v>3.5815369999999999E-2</v>
+      </c>
+      <c r="BR13">
+        <v>111293</v>
       </c>
       <c r="BS13">
         <v>37747254</v>
@@ -5317,17 +5317,17 @@
       <c r="AM14">
         <v>461</v>
       </c>
-      <c r="AN14" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO14" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP14" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ14" t="s">
-        <v>78</v>
+      <c r="AN14">
+        <v>3.7516170000000001E-3</v>
+      </c>
+      <c r="AO14">
+        <v>7730</v>
+      </c>
+      <c r="AP14">
+        <v>4.0251519999999997E-3</v>
+      </c>
+      <c r="AQ14">
+        <v>49936</v>
       </c>
       <c r="AR14">
         <v>74461782</v>
@@ -5398,17 +5398,17 @@
       <c r="BN14">
         <v>79</v>
       </c>
-      <c r="BO14" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP14" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ14" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR14" t="s">
-        <v>78</v>
+      <c r="BO14">
+        <v>3.2283672999999999E-2</v>
+      </c>
+      <c r="BP14">
+        <v>7558</v>
+      </c>
+      <c r="BQ14">
+        <v>3.1956041999999997E-2</v>
+      </c>
+      <c r="BR14">
+        <v>55326</v>
       </c>
       <c r="BS14">
         <v>34213938</v>
@@ -5544,17 +5544,17 @@
       <c r="AM15">
         <v>1841</v>
       </c>
-      <c r="AN15" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO15" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP15" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ15" t="s">
-        <v>78</v>
+      <c r="AN15">
+        <v>3.8674709999999999E-3</v>
+      </c>
+      <c r="AO15">
+        <v>40595</v>
+      </c>
+      <c r="AP15">
+        <v>4.0074560000000004E-3</v>
+      </c>
+      <c r="AQ15">
+        <v>10730</v>
       </c>
       <c r="AR15">
         <v>75593545</v>
@@ -5625,17 +5625,17 @@
       <c r="BN15">
         <v>2134</v>
       </c>
-      <c r="BO15" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP15" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ15" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR15" t="s">
-        <v>78</v>
+      <c r="BO15">
+        <v>3.1700582999999997E-2</v>
+      </c>
+      <c r="BP15">
+        <v>19558</v>
+      </c>
+      <c r="BQ15">
+        <v>3.3950908000000002E-2</v>
+      </c>
+      <c r="BR15">
+        <v>10633</v>
       </c>
       <c r="BS15">
         <v>33217026</v>
@@ -5771,17 +5771,17 @@
       <c r="AM16">
         <v>1746</v>
       </c>
-      <c r="AN16" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO16" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP16" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ16" t="s">
-        <v>78</v>
+      <c r="AN16">
+        <v>3.0784720000000001E-3</v>
+      </c>
+      <c r="AO16">
+        <v>69515</v>
+      </c>
+      <c r="AP16">
+        <v>2.6344979999999999E-3</v>
+      </c>
+      <c r="AQ16">
+        <v>209148</v>
       </c>
       <c r="AR16">
         <v>159354962</v>
@@ -5852,17 +5852,17 @@
       <c r="BN16">
         <v>584</v>
       </c>
-      <c r="BO16" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP16" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ16" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR16" t="s">
-        <v>78</v>
+      <c r="BO16">
+        <v>3.0369322000000001E-2</v>
+      </c>
+      <c r="BP16">
+        <v>62168</v>
+      </c>
+      <c r="BQ16">
+        <v>2.8449049000000001E-2</v>
+      </c>
+      <c r="BR16">
+        <v>138212</v>
       </c>
       <c r="BS16">
         <v>40181640</v>
@@ -5998,17 +5998,17 @@
       <c r="AM17">
         <v>2209</v>
       </c>
-      <c r="AN17" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO17" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP17" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ17" t="s">
-        <v>78</v>
+      <c r="AN17">
+        <v>2.2708509999999999E-3</v>
+      </c>
+      <c r="AO17">
+        <v>4844</v>
+      </c>
+      <c r="AP17">
+        <v>3.056212E-3</v>
+      </c>
+      <c r="AQ17">
+        <v>320004</v>
       </c>
       <c r="AR17">
         <v>196793882</v>
@@ -6079,17 +6079,17 @@
       <c r="BN17">
         <v>2377</v>
       </c>
-      <c r="BO17" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP17" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ17" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR17" t="s">
-        <v>78</v>
+      <c r="BO17">
+        <v>2.8752039E-2</v>
+      </c>
+      <c r="BP17">
+        <v>4904</v>
+      </c>
+      <c r="BQ17">
+        <v>3.1001112000000001E-2</v>
+      </c>
+      <c r="BR17">
+        <v>231153</v>
       </c>
       <c r="BS17">
         <v>77094335</v>
@@ -6225,17 +6225,17 @@
       <c r="AM18">
         <v>3050</v>
       </c>
-      <c r="AN18" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO18" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP18" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ18" t="s">
-        <v>78</v>
+      <c r="AN18">
+        <v>3.3569120000000001E-3</v>
+      </c>
+      <c r="AO18">
+        <v>16682</v>
+      </c>
+      <c r="AP18">
+        <v>3.3483739999999999E-3</v>
+      </c>
+      <c r="AQ18">
+        <v>328219</v>
       </c>
       <c r="AR18">
         <v>204316902</v>
@@ -6306,17 +6306,17 @@
       <c r="BN18">
         <v>3128</v>
       </c>
-      <c r="BO18" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP18" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ18" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR18" t="s">
-        <v>78</v>
+      <c r="BO18">
+        <v>3.0973713999999999E-2</v>
+      </c>
+      <c r="BP18">
+        <v>16853</v>
+      </c>
+      <c r="BQ18">
+        <v>2.9815736999999998E-2</v>
+      </c>
+      <c r="BR18">
+        <v>646303</v>
       </c>
       <c r="BS18">
         <v>84016240</v>
@@ -6452,17 +6452,17 @@
       <c r="AM19">
         <v>348</v>
       </c>
-      <c r="AN19" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO19" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP19" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ19" t="s">
-        <v>78</v>
+      <c r="AN19">
+        <v>2.2571050000000001E-3</v>
+      </c>
+      <c r="AO19">
+        <v>29241</v>
+      </c>
+      <c r="AP19">
+        <v>3.8155049999999999E-3</v>
+      </c>
+      <c r="AQ19">
+        <v>29616</v>
       </c>
       <c r="AR19">
         <v>211141493</v>
@@ -6533,17 +6533,17 @@
       <c r="BN19">
         <v>359</v>
       </c>
-      <c r="BO19" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP19" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ19" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR19" t="s">
-        <v>78</v>
+      <c r="BO19">
+        <v>3.3265764000000003E-2</v>
+      </c>
+      <c r="BP19">
+        <v>27626</v>
+      </c>
+      <c r="BQ19">
+        <v>3.2383342000000002E-2</v>
+      </c>
+      <c r="BR19">
+        <v>33474</v>
       </c>
       <c r="BS19">
         <v>91356686</v>
@@ -6679,17 +6679,17 @@
       <c r="AM20">
         <v>2146</v>
       </c>
-      <c r="AN20" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO20" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP20" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ20" t="s">
-        <v>78</v>
+      <c r="AN20">
+        <v>3.7764349999999999E-3</v>
+      </c>
+      <c r="AO20">
+        <v>2648</v>
+      </c>
+      <c r="AP20">
+        <v>6.4562409999999997E-3</v>
+      </c>
+      <c r="AQ20">
+        <v>4182</v>
       </c>
       <c r="AR20">
         <v>241275468</v>
@@ -6760,17 +6760,17 @@
       <c r="BN20">
         <v>2221</v>
       </c>
-      <c r="BO20" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP20" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ20" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR20" t="s">
-        <v>78</v>
+      <c r="BO20">
+        <v>5.1845706999999998E-2</v>
+      </c>
+      <c r="BP20">
+        <v>2411</v>
+      </c>
+      <c r="BQ20">
+        <v>4.2668106999999997E-2</v>
+      </c>
+      <c r="BR20">
+        <v>3703</v>
       </c>
       <c r="BS20">
         <v>121057795</v>
@@ -6906,17 +6906,17 @@
       <c r="AM21">
         <v>1564</v>
       </c>
-      <c r="AN21" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO21" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP21" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ21" t="s">
-        <v>78</v>
+      <c r="AN21">
+        <v>2.062801E-3</v>
+      </c>
+      <c r="AO21">
+        <v>4363</v>
+      </c>
+      <c r="AP21">
+        <v>4.4072019999999998E-3</v>
+      </c>
+      <c r="AQ21">
+        <v>50599</v>
       </c>
       <c r="AR21">
         <v>9088374</v>
@@ -6987,17 +6987,17 @@
       <c r="BN21">
         <v>4106</v>
       </c>
-      <c r="BO21" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP21" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ21" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR21" t="s">
-        <v>78</v>
+      <c r="BO21">
+        <v>3.1559113999999999E-2</v>
+      </c>
+      <c r="BP21">
+        <v>4246</v>
+      </c>
+      <c r="BQ21">
+        <v>7.6600549999999998E-3</v>
+      </c>
+      <c r="BR21">
+        <v>49608</v>
       </c>
       <c r="BS21">
         <v>44819387</v>
@@ -7133,17 +7133,17 @@
       <c r="AM22">
         <v>2367</v>
       </c>
-      <c r="AN22" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO22" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP22" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ22" t="s">
-        <v>78</v>
+      <c r="AN22">
+        <v>4.8035409999999997E-3</v>
+      </c>
+      <c r="AO22">
+        <v>18528</v>
+      </c>
+      <c r="AP22">
+        <v>3.6075040000000001E-3</v>
+      </c>
+      <c r="AQ22">
+        <v>20790</v>
       </c>
       <c r="AR22">
         <v>15151309</v>
@@ -7214,17 +7214,17 @@
       <c r="BN22">
         <v>2561</v>
       </c>
-      <c r="BO22" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP22" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ22" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR22" t="s">
-        <v>78</v>
+      <c r="BO22">
+        <v>4.1680233999999997E-2</v>
+      </c>
+      <c r="BP22">
+        <v>3071</v>
+      </c>
+      <c r="BQ22">
+        <v>3.5218665000000003E-2</v>
+      </c>
+      <c r="BR22">
+        <v>18087</v>
       </c>
       <c r="BS22">
         <v>50750957</v>
@@ -7360,17 +7360,17 @@
       <c r="AM23">
         <v>2496</v>
       </c>
-      <c r="AN23" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO23" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP23" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ23" t="s">
-        <v>78</v>
+      <c r="AN23">
+        <v>1.5600620000000001E-3</v>
+      </c>
+      <c r="AO23">
+        <v>4487</v>
+      </c>
+      <c r="AP23">
+        <v>3.6682709999999999E-3</v>
+      </c>
+      <c r="AQ23">
+        <v>484697</v>
       </c>
       <c r="AR23">
         <v>24567347</v>
@@ -7441,17 +7441,17 @@
       <c r="BN23">
         <v>198</v>
       </c>
-      <c r="BO23" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP23" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ23" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR23" t="s">
-        <v>78</v>
+      <c r="BO23">
+        <v>2.7545720999999999E-2</v>
+      </c>
+      <c r="BP23">
+        <v>4429</v>
+      </c>
+      <c r="BQ23">
+        <v>3.0459463999999999E-2</v>
+      </c>
+      <c r="BR23">
+        <v>462582</v>
       </c>
       <c r="BS23">
         <v>68661098</v>
@@ -7587,17 +7587,17 @@
       <c r="AM24">
         <v>3617</v>
       </c>
-      <c r="AN24" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO24" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP24" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ24" t="s">
-        <v>78</v>
+      <c r="AN24">
+        <v>6.1299550000000003E-3</v>
+      </c>
+      <c r="AO24">
+        <v>2447</v>
+      </c>
+      <c r="AP24">
+        <v>4.1071429999999997E-3</v>
+      </c>
+      <c r="AQ24">
+        <v>61600</v>
       </c>
       <c r="AR24">
         <v>154310582</v>
@@ -7668,17 +7668,17 @@
       <c r="BN24">
         <v>3629</v>
       </c>
-      <c r="BO24" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP24" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ24" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR24" t="s">
-        <v>78</v>
+      <c r="BO24">
+        <v>3.5470667999999997E-2</v>
+      </c>
+      <c r="BP24">
+        <v>2199</v>
+      </c>
+      <c r="BQ24">
+        <v>3.1375677999999997E-2</v>
+      </c>
+      <c r="BR24">
+        <v>62660</v>
       </c>
       <c r="BS24">
         <v>41186441</v>
@@ -7814,17 +7814,17 @@
       <c r="AM25">
         <v>963</v>
       </c>
-      <c r="AN25" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO25" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP25" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ25" t="s">
-        <v>78</v>
+      <c r="AN25">
+        <v>3.8972949999999998E-3</v>
+      </c>
+      <c r="AO25">
+        <v>4362</v>
+      </c>
+      <c r="AP25">
+        <v>3.4569290000000001E-3</v>
+      </c>
+      <c r="AQ25">
+        <v>39052</v>
       </c>
       <c r="AR25">
         <v>154564203</v>
@@ -7895,17 +7895,17 @@
       <c r="BN25">
         <v>3273</v>
       </c>
-      <c r="BO25" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP25" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ25" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR25" t="s">
-        <v>78</v>
+      <c r="BO25">
+        <v>3.5705841000000002E-2</v>
+      </c>
+      <c r="BP25">
+        <v>4229</v>
+      </c>
+      <c r="BQ25">
+        <v>2.5313527999999998E-2</v>
+      </c>
+      <c r="BR25">
+        <v>38912</v>
       </c>
       <c r="BS25">
         <v>40958720</v>
@@ -8041,17 +8041,17 @@
       <c r="AM26">
         <v>3327</v>
       </c>
-      <c r="AN26" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO26" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP26" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ26" t="s">
-        <v>78</v>
+      <c r="AN26">
+        <v>4.316912E-3</v>
+      </c>
+      <c r="AO26">
+        <v>3938</v>
+      </c>
+      <c r="AP26">
+        <v>3.2879419999999999E-3</v>
+      </c>
+      <c r="AQ26">
+        <v>317828</v>
       </c>
       <c r="AR26">
         <v>160160533</v>
@@ -8122,17 +8122,17 @@
       <c r="BN26">
         <v>101</v>
       </c>
-      <c r="BO26" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP26" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ26" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR26" t="s">
-        <v>78</v>
+      <c r="BO26">
+        <v>4.0505675999999997E-2</v>
+      </c>
+      <c r="BP26">
+        <v>3876</v>
+      </c>
+      <c r="BQ26">
+        <v>2.2240194000000001E-2</v>
+      </c>
+      <c r="BR26">
+        <v>296760</v>
       </c>
       <c r="BS26">
         <v>35232555</v>
@@ -8268,17 +8268,17 @@
       <c r="AM27">
         <v>3487</v>
       </c>
-      <c r="AN27" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO27" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP27" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ27" t="s">
-        <v>78</v>
+      <c r="AN27">
+        <v>3.223727E-3</v>
+      </c>
+      <c r="AO27">
+        <v>7755</v>
+      </c>
+      <c r="AP27">
+        <v>3.465727E-3</v>
+      </c>
+      <c r="AQ27">
+        <v>137922</v>
       </c>
       <c r="AR27">
         <v>177618720</v>
@@ -8349,17 +8349,17 @@
       <c r="BN27">
         <v>3594</v>
       </c>
-      <c r="BO27" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP27" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ27" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR27" t="s">
-        <v>78</v>
+      <c r="BO27">
+        <v>2.6265651000000001E-2</v>
+      </c>
+      <c r="BP27">
+        <v>7348</v>
+      </c>
+      <c r="BQ27">
+        <v>2.5057069000000001E-2</v>
+      </c>
+      <c r="BR27">
+        <v>131420</v>
       </c>
       <c r="BS27">
         <v>16898298</v>
@@ -8495,17 +8495,17 @@
       <c r="AM28">
         <v>3137</v>
       </c>
-      <c r="AN28" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO28" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP28" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ28" t="s">
-        <v>78</v>
+      <c r="AN28">
+        <v>2.895753E-3</v>
+      </c>
+      <c r="AO28">
+        <v>3108</v>
+      </c>
+      <c r="AP28">
+        <v>3.8726049999999999E-3</v>
+      </c>
+      <c r="AQ28">
+        <v>29954</v>
       </c>
       <c r="AR28">
         <v>202218644</v>
@@ -8576,17 +8576,17 @@
       <c r="BN28">
         <v>4287</v>
       </c>
-      <c r="BO28" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP28" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ28" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR28" t="s">
-        <v>78</v>
+      <c r="BO28">
+        <v>2.7663087999999999E-2</v>
+      </c>
+      <c r="BP28">
+        <v>2422</v>
+      </c>
+      <c r="BQ28">
+        <v>3.4535422000000003E-2</v>
+      </c>
+      <c r="BR28">
+        <v>20298</v>
       </c>
       <c r="BS28">
         <v>89640480</v>
@@ -8722,17 +8722,17 @@
       <c r="AM29">
         <v>2866</v>
       </c>
-      <c r="AN29" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO29" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP29" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ29" t="s">
-        <v>78</v>
+      <c r="AN29">
+        <v>4.8835459999999999E-3</v>
+      </c>
+      <c r="AO29">
+        <v>2662</v>
+      </c>
+      <c r="AP29">
+        <v>6.2861499999999999E-3</v>
+      </c>
+      <c r="AQ29">
+        <v>49792</v>
       </c>
       <c r="AR29">
         <v>6430194</v>
@@ -8803,17 +8803,17 @@
       <c r="BN29">
         <v>2904</v>
       </c>
-      <c r="BO29" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP29" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ29" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR29" t="s">
-        <v>78</v>
+      <c r="BO29">
+        <v>4.2711599000000003E-2</v>
+      </c>
+      <c r="BP29">
+        <v>2552</v>
+      </c>
+      <c r="BQ29">
+        <v>3.8084394000000001E-2</v>
+      </c>
+      <c r="BR29">
+        <v>86072</v>
       </c>
       <c r="BS29">
         <v>40288482</v>
@@ -8949,17 +8949,17 @@
       <c r="AM30">
         <v>925</v>
       </c>
-      <c r="AN30" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO30" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP30" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ30" t="s">
-        <v>78</v>
+      <c r="AN30">
+        <v>1.4961099999999999E-3</v>
+      </c>
+      <c r="AO30">
+        <v>3342</v>
+      </c>
+      <c r="AP30">
+        <v>4.8120300000000001E-3</v>
+      </c>
+      <c r="AQ30">
+        <v>16625</v>
       </c>
       <c r="AR30">
         <v>60100508</v>
@@ -9030,17 +9030,17 @@
       <c r="BN30">
         <v>862</v>
       </c>
-      <c r="BO30" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP30" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ30" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR30" t="s">
-        <v>78</v>
+      <c r="BO30">
+        <v>3.4493283999999999E-2</v>
+      </c>
+      <c r="BP30">
+        <v>3276</v>
+      </c>
+      <c r="BQ30">
+        <v>3.0040791000000001E-2</v>
+      </c>
+      <c r="BR30">
+        <v>52462</v>
       </c>
       <c r="BS30">
         <v>18985429</v>
@@ -9176,17 +9176,17 @@
       <c r="AM31">
         <v>3861</v>
       </c>
-      <c r="AN31" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO31" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP31" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ31" t="s">
-        <v>78</v>
+      <c r="AN31">
+        <v>1.495017E-3</v>
+      </c>
+      <c r="AO31">
+        <v>6020</v>
+      </c>
+      <c r="AP31">
+        <v>3.3661210000000001E-3</v>
+      </c>
+      <c r="AQ31">
+        <v>206172</v>
       </c>
       <c r="AR31">
         <v>55213799</v>
@@ -9257,17 +9257,17 @@
       <c r="BN31">
         <v>3762</v>
       </c>
-      <c r="BO31" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP31" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ31" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR31" t="s">
-        <v>78</v>
+      <c r="BO31">
+        <v>3.4949760000000003E-2</v>
+      </c>
+      <c r="BP31">
+        <v>4578</v>
+      </c>
+      <c r="BQ31">
+        <v>3.1974104000000003E-2</v>
+      </c>
+      <c r="BR31">
+        <v>164039</v>
       </c>
       <c r="BS31">
         <v>23573768</v>
@@ -9403,17 +9403,17 @@
       <c r="AM32">
         <v>3398</v>
       </c>
-      <c r="AN32" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO32" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP32" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ32" t="s">
-        <v>78</v>
+      <c r="AN32">
+        <v>2.9899430000000001E-3</v>
+      </c>
+      <c r="AO32">
+        <v>3679</v>
+      </c>
+      <c r="AP32">
+        <v>3.6085790000000002E-3</v>
+      </c>
+      <c r="AQ32">
+        <v>304552</v>
       </c>
       <c r="AR32">
         <v>55008882</v>
@@ -9484,17 +9484,17 @@
       <c r="BN32">
         <v>130</v>
       </c>
-      <c r="BO32" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP32" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ32" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR32" t="s">
-        <v>78</v>
+      <c r="BO32">
+        <v>3.5062300999999997E-2</v>
+      </c>
+      <c r="BP32">
+        <v>3451</v>
+      </c>
+      <c r="BQ32">
+        <v>3.3031352999999999E-2</v>
+      </c>
+      <c r="BR32">
+        <v>252003</v>
       </c>
       <c r="BS32">
         <v>23650754</v>
@@ -9630,17 +9630,17 @@
       <c r="AM33">
         <v>1368</v>
       </c>
-      <c r="AN33" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO33" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP33" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ33" t="s">
-        <v>78</v>
+      <c r="AN33">
+        <v>3.3988349999999998E-3</v>
+      </c>
+      <c r="AO33">
+        <v>35012</v>
+      </c>
+      <c r="AP33">
+        <v>2.6745319999999999E-3</v>
+      </c>
+      <c r="AQ33">
+        <v>65432</v>
       </c>
       <c r="AR33">
         <v>117370497</v>
@@ -9711,17 +9711,17 @@
       <c r="BN33">
         <v>1326</v>
       </c>
-      <c r="BO33" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP33" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ33" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR33" t="s">
-        <v>78</v>
+      <c r="BO33">
+        <v>3.6528451000000003E-2</v>
+      </c>
+      <c r="BP33">
+        <v>33426</v>
+      </c>
+      <c r="BQ33">
+        <v>3.4163962999999999E-2</v>
+      </c>
+      <c r="BR33">
+        <v>48999</v>
       </c>
       <c r="BS33">
         <v>60993790</v>
@@ -9857,17 +9857,17 @@
       <c r="AM34">
         <v>1347</v>
       </c>
-      <c r="AN34" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO34" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP34" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ34" t="s">
-        <v>78</v>
+      <c r="AN34">
+        <v>4.6394269999999998E-3</v>
+      </c>
+      <c r="AO34">
+        <v>12286</v>
+      </c>
+      <c r="AP34">
+        <v>3.7943550000000001E-3</v>
+      </c>
+      <c r="AQ34">
+        <v>1840102</v>
       </c>
       <c r="AR34">
         <v>136751742</v>
@@ -9938,17 +9938,17 @@
       <c r="BN34">
         <v>21</v>
       </c>
-      <c r="BO34" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP34" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ34" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR34" t="s">
-        <v>78</v>
+      <c r="BO34">
+        <v>4.1727791E-2</v>
+      </c>
+      <c r="BP34">
+        <v>12270</v>
+      </c>
+      <c r="BQ34">
+        <v>3.4457786999999997E-2</v>
+      </c>
+      <c r="BR34">
+        <v>700103</v>
       </c>
       <c r="BS34">
         <v>80212092</v>
@@ -10084,17 +10084,17 @@
       <c r="AM35">
         <v>5626</v>
       </c>
-      <c r="AN35" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO35" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP35" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ35" t="s">
-        <v>78</v>
+      <c r="AN35">
+        <v>2.6558350000000001E-3</v>
+      </c>
+      <c r="AO35">
+        <v>6401</v>
+      </c>
+      <c r="AP35">
+        <v>4.3574900000000003E-3</v>
+      </c>
+      <c r="AQ35">
+        <v>102123</v>
       </c>
       <c r="AR35">
         <v>174296565</v>
@@ -10165,17 +10165,17 @@
       <c r="BN35">
         <v>5647</v>
       </c>
-      <c r="BO35" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP35" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ35" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR35" t="s">
-        <v>78</v>
+      <c r="BO35">
+        <v>4.0850216000000002E-2</v>
+      </c>
+      <c r="BP35">
+        <v>6022</v>
+      </c>
+      <c r="BQ35">
+        <v>3.3755633E-2</v>
+      </c>
+      <c r="BR35">
+        <v>82327</v>
       </c>
       <c r="BS35">
         <v>116092618</v>
@@ -10311,17 +10311,17 @@
       <c r="AM36">
         <v>177</v>
       </c>
-      <c r="AN36" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO36" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP36" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ36" t="s">
-        <v>78</v>
+      <c r="AN36">
+        <v>5.7220709999999996E-3</v>
+      </c>
+      <c r="AO36">
+        <v>3670</v>
+      </c>
+      <c r="AP36">
+        <v>2.9221849999999999E-3</v>
+      </c>
+      <c r="AQ36">
+        <v>120800</v>
       </c>
       <c r="AR36">
         <v>82210595</v>
@@ -10392,17 +10392,17 @@
       <c r="BN36">
         <v>3651</v>
       </c>
-      <c r="BO36" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP36" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ36" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR36" t="s">
-        <v>78</v>
+      <c r="BO36">
+        <v>4.2836040999999998E-2</v>
+      </c>
+      <c r="BP36">
+        <v>2708</v>
+      </c>
+      <c r="BQ36">
+        <v>1.3887661000000001E-2</v>
+      </c>
+      <c r="BR36">
+        <v>361904</v>
       </c>
       <c r="BS36">
         <v>32240234</v>
@@ -10538,17 +10538,17 @@
       <c r="AM37">
         <v>3343</v>
       </c>
-      <c r="AN37" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO37" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP37" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ37" t="s">
-        <v>78</v>
+      <c r="AN37">
+        <v>2.6231969999999999E-3</v>
+      </c>
+      <c r="AO37">
+        <v>10674</v>
+      </c>
+      <c r="AP37">
+        <v>3.823009E-3</v>
+      </c>
+      <c r="AQ37">
+        <v>226000</v>
       </c>
       <c r="AR37">
         <v>61149180</v>
@@ -10619,17 +10619,17 @@
       <c r="BN37">
         <v>3426</v>
       </c>
-      <c r="BO37" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP37" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ37" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR37" t="s">
-        <v>78</v>
+      <c r="BO37">
+        <v>3.4536747E-2</v>
+      </c>
+      <c r="BP37">
+        <v>10858</v>
+      </c>
+      <c r="BQ37">
+        <v>3.4165705999999997E-2</v>
+      </c>
+      <c r="BR37">
+        <v>205557</v>
       </c>
       <c r="BS37">
         <v>50795681</v>
@@ -10765,17 +10765,17 @@
       <c r="AM38">
         <v>2127</v>
       </c>
-      <c r="AN38" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO38" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP38" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ38" t="s">
-        <v>78</v>
+      <c r="AN38">
+        <v>2.048481E-3</v>
+      </c>
+      <c r="AO38">
+        <v>2929</v>
+      </c>
+      <c r="AP38">
+        <v>2.6835409999999998E-3</v>
+      </c>
+      <c r="AQ38">
+        <v>276873</v>
       </c>
       <c r="AR38">
         <v>103861962</v>
@@ -10846,17 +10846,17 @@
       <c r="BN38">
         <v>2612</v>
       </c>
-      <c r="BO38" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP38" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ38" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR38" t="s">
-        <v>78</v>
+      <c r="BO38">
+        <v>4.2493904999999998E-2</v>
+      </c>
+      <c r="BP38">
+        <v>2871</v>
+      </c>
+      <c r="BQ38">
+        <v>3.1638508000000003E-2</v>
+      </c>
+      <c r="BR38">
+        <v>250960</v>
       </c>
       <c r="BS38">
         <v>6245621</v>
@@ -10992,17 +10992,17 @@
       <c r="AM39">
         <v>2670</v>
       </c>
-      <c r="AN39" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO39" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP39" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ39" t="s">
-        <v>78</v>
+      <c r="AN39">
+        <v>4.2822880000000004E-3</v>
+      </c>
+      <c r="AO39">
+        <v>11676</v>
+      </c>
+      <c r="AP39">
+        <v>2.6663759999999998E-3</v>
+      </c>
+      <c r="AQ39">
+        <v>18377</v>
       </c>
       <c r="AR39">
         <v>142764165</v>
@@ -11073,17 +11073,17 @@
       <c r="BN39">
         <v>312</v>
       </c>
-      <c r="BO39" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP39" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ39" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR39" t="s">
-        <v>78</v>
+      <c r="BO39">
+        <v>3.1765214E-2</v>
+      </c>
+      <c r="BP39">
+        <v>11585</v>
+      </c>
+      <c r="BQ39">
+        <v>2.9902789999999999E-2</v>
+      </c>
+      <c r="BR39">
+        <v>18928</v>
       </c>
       <c r="BS39">
         <v>43625248</v>
@@ -11219,17 +11219,17 @@
       <c r="AM40">
         <v>2554</v>
       </c>
-      <c r="AN40" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO40" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP40" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ40" t="s">
-        <v>78</v>
+      <c r="AN40">
+        <v>3.2038449999999999E-3</v>
+      </c>
+      <c r="AO40">
+        <v>2497</v>
+      </c>
+      <c r="AP40">
+        <v>2.1719460000000001E-3</v>
+      </c>
+      <c r="AQ40">
+        <v>11050</v>
       </c>
       <c r="AR40">
         <v>179583877</v>
@@ -11300,17 +11300,17 @@
       <c r="BN40">
         <v>2506</v>
       </c>
-      <c r="BO40" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP40" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ40" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR40" t="s">
-        <v>78</v>
+      <c r="BO40">
+        <v>3.3546326000000001E-2</v>
+      </c>
+      <c r="BP40">
+        <v>2504</v>
+      </c>
+      <c r="BQ40">
+        <v>6.5193769999999998E-3</v>
+      </c>
+      <c r="BR40">
+        <v>5522</v>
       </c>
       <c r="BS40">
         <v>79216622</v>
@@ -11446,17 +11446,17 @@
       <c r="AM41">
         <v>472</v>
       </c>
-      <c r="AN41" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO41" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP41" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ41" t="s">
-        <v>78</v>
+      <c r="AN41">
+        <v>3.563596E-3</v>
+      </c>
+      <c r="AO41">
+        <v>3648</v>
+      </c>
+      <c r="AP41">
+        <v>3.9554120000000002E-3</v>
+      </c>
+      <c r="AQ41">
+        <v>52839</v>
       </c>
       <c r="AR41">
         <v>181502896</v>
@@ -11527,17 +11527,17 @@
       <c r="BN41">
         <v>3583</v>
       </c>
-      <c r="BO41" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP41" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ41" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR41" t="s">
-        <v>78</v>
+      <c r="BO41">
+        <v>3.7070253999999997E-2</v>
+      </c>
+      <c r="BP41">
+        <v>3345</v>
+      </c>
+      <c r="BQ41">
+        <v>3.3817726999999999E-2</v>
+      </c>
+      <c r="BR41">
+        <v>40807</v>
       </c>
       <c r="BS41">
         <v>80799360</v>
@@ -11673,17 +11673,17 @@
       <c r="AM42">
         <v>2071</v>
       </c>
-      <c r="AN42" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO42" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP42" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ42" t="s">
-        <v>78</v>
+      <c r="AN42">
+        <v>3.4364259999999998E-3</v>
+      </c>
+      <c r="AO42">
+        <v>3492</v>
+      </c>
+      <c r="AP42">
+        <v>3.7188899999999999E-3</v>
+      </c>
+      <c r="AQ42">
+        <v>52435</v>
       </c>
       <c r="AR42">
         <v>17627715</v>
@@ -11754,17 +11754,17 @@
       <c r="BN42">
         <v>2097</v>
       </c>
-      <c r="BO42" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP42" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ42" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR42" t="s">
-        <v>78</v>
+      <c r="BO42">
+        <v>2.2002550999999999E-2</v>
+      </c>
+      <c r="BP42">
+        <v>3136</v>
+      </c>
+      <c r="BQ42">
+        <v>1.4358203999999999E-2</v>
+      </c>
+      <c r="BR42">
+        <v>43947</v>
       </c>
       <c r="BS42">
         <v>54798328</v>
@@ -11900,17 +11900,17 @@
       <c r="AM43">
         <v>3945</v>
       </c>
-      <c r="AN43" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO43" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP43" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ43" t="s">
-        <v>78</v>
+      <c r="AN43">
+        <v>3.9715719999999996E-3</v>
+      </c>
+      <c r="AO43">
+        <v>4784</v>
+      </c>
+      <c r="AP43">
+        <v>4.7237629999999997E-3</v>
+      </c>
+      <c r="AQ43">
+        <v>14607</v>
       </c>
       <c r="AR43">
         <v>38215240</v>
@@ -11981,17 +11981,17 @@
       <c r="BN43">
         <v>1890</v>
       </c>
-      <c r="BO43" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP43" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ43" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR43" t="s">
-        <v>78</v>
+      <c r="BO43">
+        <v>3.6551339000000002E-2</v>
+      </c>
+      <c r="BP43">
+        <v>3584</v>
+      </c>
+      <c r="BQ43">
+        <v>2.9196172999999999E-2</v>
+      </c>
+      <c r="BR43">
+        <v>16098</v>
       </c>
       <c r="BS43">
         <v>34729309</v>
@@ -12127,17 +12127,17 @@
       <c r="AM44">
         <v>87</v>
       </c>
-      <c r="AN44" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO44" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP44" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ44" t="s">
-        <v>78</v>
+      <c r="AN44">
+        <v>4.4019430000000002E-3</v>
+      </c>
+      <c r="AO44">
+        <v>6588</v>
+      </c>
+      <c r="AP44">
+        <v>4.2740119999999998E-3</v>
+      </c>
+      <c r="AQ44">
+        <v>8423</v>
       </c>
       <c r="AR44">
         <v>48716782</v>
@@ -12208,17 +12208,17 @@
       <c r="BN44">
         <v>3222</v>
       </c>
-      <c r="BO44" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP44" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ44" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR44" t="s">
-        <v>78</v>
+      <c r="BO44">
+        <v>5.4421769000000002E-2</v>
+      </c>
+      <c r="BP44">
+        <v>4116</v>
+      </c>
+      <c r="BQ44">
+        <v>3.7568334000000002E-2</v>
+      </c>
+      <c r="BR44">
+        <v>24329</v>
       </c>
       <c r="BS44">
         <v>24623263</v>
@@ -12354,17 +12354,17 @@
       <c r="AM45">
         <v>2369</v>
       </c>
-      <c r="AN45" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO45" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP45" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ45" t="s">
-        <v>78</v>
+      <c r="AN45">
+        <v>4.0241449999999998E-3</v>
+      </c>
+      <c r="AO45">
+        <v>5964</v>
+      </c>
+      <c r="AP45">
+        <v>3.8689639999999999E-3</v>
+      </c>
+      <c r="AQ45">
+        <v>106230</v>
       </c>
       <c r="AR45">
         <v>56174037</v>
@@ -12435,17 +12435,17 @@
       <c r="BN45">
         <v>5148</v>
       </c>
-      <c r="BO45" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP45" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ45" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR45" t="s">
-        <v>78</v>
+      <c r="BO45">
+        <v>1.1482434E-2</v>
+      </c>
+      <c r="BP45">
+        <v>5835</v>
+      </c>
+      <c r="BQ45">
+        <v>1.7018861E-2</v>
+      </c>
+      <c r="BR45">
+        <v>128622</v>
       </c>
       <c r="BS45">
         <v>16438476</v>
@@ -12581,17 +12581,17 @@
       <c r="AM46">
         <v>369</v>
       </c>
-      <c r="AN46" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO46" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP46" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ46" t="s">
-        <v>78</v>
+      <c r="AN46">
+        <v>4.0497140000000003E-3</v>
+      </c>
+      <c r="AO46">
+        <v>7161</v>
+      </c>
+      <c r="AP46">
+        <v>2.9364980000000001E-3</v>
+      </c>
+      <c r="AQ46">
+        <v>24519</v>
       </c>
       <c r="AR46">
         <v>106826241</v>
@@ -12662,17 +12662,17 @@
       <c r="BN46">
         <v>3787</v>
       </c>
-      <c r="BO46" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP46" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ46" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR46" t="s">
-        <v>78</v>
+      <c r="BO46">
+        <v>3.7396723999999999E-2</v>
+      </c>
+      <c r="BP46">
+        <v>6899</v>
+      </c>
+      <c r="BQ46">
+        <v>3.4474671999999998E-2</v>
+      </c>
+      <c r="BR46">
+        <v>21320</v>
       </c>
       <c r="BS46">
         <v>68696665</v>
@@ -12808,17 +12808,17 @@
       <c r="AM47">
         <v>1999</v>
       </c>
-      <c r="AN47" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO47" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP47" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ47" t="s">
-        <v>78</v>
+      <c r="AN47">
+        <v>2.2881659999999999E-3</v>
+      </c>
+      <c r="AO47">
+        <v>13985</v>
+      </c>
+      <c r="AP47">
+        <v>2.6735769999999999E-3</v>
+      </c>
+      <c r="AQ47">
+        <v>121560</v>
       </c>
       <c r="AR47">
         <v>133556952</v>
@@ -12889,17 +12889,17 @@
       <c r="BN47">
         <v>1985</v>
       </c>
-      <c r="BO47" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP47" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ47" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR47" t="s">
-        <v>78</v>
+      <c r="BO47">
+        <v>3.2666476999999999E-2</v>
+      </c>
+      <c r="BP47">
+        <v>24643</v>
+      </c>
+      <c r="BQ47">
+        <v>2.5111246E-2</v>
+      </c>
+      <c r="BR47">
+        <v>105172</v>
       </c>
       <c r="BS47">
         <v>42126540</v>
@@ -13035,17 +13035,17 @@
       <c r="AM48">
         <v>281</v>
       </c>
-      <c r="AN48" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO48" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP48" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ48" t="s">
-        <v>78</v>
+      <c r="AN48">
+        <v>3.713839E-3</v>
+      </c>
+      <c r="AO48">
+        <v>25580</v>
+      </c>
+      <c r="AP48">
+        <v>3.4920419999999999E-3</v>
+      </c>
+      <c r="AQ48">
+        <v>119128</v>
       </c>
       <c r="AR48">
         <v>151704586</v>
@@ -13116,17 +13116,17 @@
       <c r="BN48">
         <v>285</v>
       </c>
-      <c r="BO48" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP48" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ48" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR48" t="s">
-        <v>78</v>
+      <c r="BO48">
+        <v>3.3152996999999997E-2</v>
+      </c>
+      <c r="BP48">
+        <v>23105</v>
+      </c>
+      <c r="BQ48">
+        <v>3.4860475000000002E-2</v>
+      </c>
+      <c r="BR48">
+        <v>96040</v>
       </c>
       <c r="BS48">
         <v>22478766</v>
@@ -13262,17 +13262,17 @@
       <c r="AM49">
         <v>2046</v>
       </c>
-      <c r="AN49" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO49" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP49" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ49" t="s">
-        <v>78</v>
+      <c r="AN49">
+        <v>3.7432149999999998E-3</v>
+      </c>
+      <c r="AO49">
+        <v>5343</v>
+      </c>
+      <c r="AP49">
+        <v>5.9377420000000002E-3</v>
+      </c>
+      <c r="AQ49">
+        <v>45135</v>
       </c>
       <c r="AR49">
         <v>152067795</v>
@@ -13343,17 +13343,17 @@
       <c r="BN49">
         <v>2737</v>
       </c>
-      <c r="BO49" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP49" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ49" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR49" t="s">
-        <v>78</v>
+      <c r="BO49">
+        <v>3.8725625E-2</v>
+      </c>
+      <c r="BP49">
+        <v>3641</v>
+      </c>
+      <c r="BQ49">
+        <v>3.8590143E-2</v>
+      </c>
+      <c r="BR49">
+        <v>61907</v>
       </c>
       <c r="BS49">
         <v>22151658</v>
@@ -13489,17 +13489,17 @@
       <c r="AM50">
         <v>3435</v>
       </c>
-      <c r="AN50" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO50" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP50" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ50" t="s">
-        <v>78</v>
+      <c r="AN50">
+        <v>2.0464329999999998E-3</v>
+      </c>
+      <c r="AO50">
+        <v>14171</v>
+      </c>
+      <c r="AP50">
+        <v>3.8665330000000001E-3</v>
+      </c>
+      <c r="AQ50">
+        <v>13966</v>
       </c>
       <c r="AR50">
         <v>21782663</v>
@@ -13570,17 +13570,17 @@
       <c r="BN50">
         <v>4308</v>
       </c>
-      <c r="BO50" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP50" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ50" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR50" t="s">
-        <v>78</v>
+      <c r="BO50">
+        <v>3.4768457000000003E-2</v>
+      </c>
+      <c r="BP50">
+        <v>13518</v>
+      </c>
+      <c r="BQ50">
+        <v>3.2305559999999997E-2</v>
+      </c>
+      <c r="BR50">
+        <v>11546</v>
       </c>
       <c r="BS50">
         <v>36733833</v>
@@ -13716,17 +13716,17 @@
       <c r="AM51">
         <v>2764</v>
       </c>
-      <c r="AN51" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO51" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP51" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ51" t="s">
-        <v>78</v>
+      <c r="AN51">
+        <v>4.8524060000000001E-3</v>
+      </c>
+      <c r="AO51">
+        <v>4946</v>
+      </c>
+      <c r="AP51">
+        <v>2.7932959999999998E-3</v>
+      </c>
+      <c r="AQ51">
+        <v>57280</v>
       </c>
       <c r="AR51">
         <v>34549459</v>
@@ -13797,17 +13797,17 @@
       <c r="BN51">
         <v>1400</v>
       </c>
-      <c r="BO51" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP51" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ51" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR51" t="s">
-        <v>78</v>
+      <c r="BO51">
+        <v>3.7469693999999998E-2</v>
+      </c>
+      <c r="BP51">
+        <v>4537</v>
+      </c>
+      <c r="BQ51">
+        <v>3.0187387E-2</v>
+      </c>
+      <c r="BR51">
+        <v>61317</v>
       </c>
       <c r="BS51">
         <v>24184269</v>
@@ -13943,17 +13943,17 @@
       <c r="AM52">
         <v>1129</v>
       </c>
-      <c r="AN52" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO52" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP52" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ52" t="s">
-        <v>78</v>
+      <c r="AN52">
+        <v>3.7792889999999999E-3</v>
+      </c>
+      <c r="AO52">
+        <v>27783</v>
+      </c>
+      <c r="AP52">
+        <v>4.4476330000000003E-3</v>
+      </c>
+      <c r="AQ52">
+        <v>6970</v>
       </c>
       <c r="AR52">
         <v>125119550</v>
@@ -14024,17 +14024,17 @@
       <c r="BN52">
         <v>1791</v>
       </c>
-      <c r="BO52" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP52" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ52" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR52" t="s">
-        <v>78</v>
+      <c r="BO52">
+        <v>3.5674709999999998E-2</v>
+      </c>
+      <c r="BP52">
+        <v>27975</v>
+      </c>
+      <c r="BQ52">
+        <v>3.1656879999999998E-2</v>
+      </c>
+      <c r="BR52">
+        <v>7834</v>
       </c>
       <c r="BS52">
         <v>93497473</v>
@@ -14170,17 +14170,17 @@
       <c r="AM53">
         <v>1990</v>
       </c>
-      <c r="AN53" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO53" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP53" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ53" t="s">
-        <v>78</v>
+      <c r="AN53">
+        <v>2.3762380000000001E-3</v>
+      </c>
+      <c r="AO53">
+        <v>5050</v>
+      </c>
+      <c r="AP53">
+        <v>4.1315839999999998E-3</v>
+      </c>
+      <c r="AQ53">
+        <v>83019</v>
       </c>
       <c r="AR53">
         <v>130169701</v>
@@ -14251,17 +14251,17 @@
       <c r="BN53">
         <v>2008</v>
       </c>
-      <c r="BO53" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP53" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ53" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR53" t="s">
-        <v>78</v>
+      <c r="BO53">
+        <v>2.7489026999999999E-2</v>
+      </c>
+      <c r="BP53">
+        <v>12987</v>
+      </c>
+      <c r="BQ53">
+        <v>3.4902117000000003E-2</v>
+      </c>
+      <c r="BR53">
+        <v>72689</v>
       </c>
       <c r="BS53">
         <v>98361235</v>
@@ -14397,17 +14397,17 @@
       <c r="AM54">
         <v>809</v>
       </c>
-      <c r="AN54" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO54" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP54" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ54" t="s">
-        <v>78</v>
+      <c r="AN54">
+        <v>3.3381019999999999E-3</v>
+      </c>
+      <c r="AO54">
+        <v>12582</v>
+      </c>
+      <c r="AP54">
+        <v>3.2886059999999999E-3</v>
+      </c>
+      <c r="AQ54">
+        <v>750470</v>
       </c>
       <c r="AR54">
         <v>69059210</v>
@@ -14478,17 +14478,17 @@
       <c r="BN54">
         <v>693</v>
       </c>
-      <c r="BO54" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP54" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ54" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR54" t="s">
-        <v>78</v>
+      <c r="BO54">
+        <v>2.4114383E-2</v>
+      </c>
+      <c r="BP54">
+        <v>9372</v>
+      </c>
+      <c r="BQ54">
+        <v>2.9683297000000001E-2</v>
+      </c>
+      <c r="BR54">
+        <v>573218</v>
       </c>
       <c r="BS54">
         <v>66452506</v>
@@ -14624,17 +14624,17 @@
       <c r="AM55">
         <v>280</v>
       </c>
-      <c r="AN55" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO55" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP55" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ55" t="s">
-        <v>78</v>
+      <c r="AN55">
+        <v>1.685204E-3</v>
+      </c>
+      <c r="AO55">
+        <v>2967</v>
+      </c>
+      <c r="AP55">
+        <v>4.4821590000000003E-3</v>
+      </c>
+      <c r="AQ55">
+        <v>39713</v>
       </c>
       <c r="AR55">
         <v>132186094</v>
@@ -14705,17 +14705,17 @@
       <c r="BN55">
         <v>2238</v>
       </c>
-      <c r="BO55" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP55" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ55" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR55" t="s">
-        <v>78</v>
+      <c r="BO55">
+        <v>4.3967279999999997E-2</v>
+      </c>
+      <c r="BP55">
+        <v>4890</v>
+      </c>
+      <c r="BQ55">
+        <v>3.4625024999999997E-2</v>
+      </c>
+      <c r="BR55">
+        <v>166758</v>
       </c>
       <c r="BS55">
         <v>126815520</v>
@@ -14851,17 +14851,17 @@
       <c r="AM56">
         <v>1478</v>
       </c>
-      <c r="AN56" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO56" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP56" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ56" t="s">
-        <v>78</v>
+      <c r="AN56">
+        <v>6.6848039999999999E-3</v>
+      </c>
+      <c r="AO56">
+        <v>12865</v>
+      </c>
+      <c r="AP56">
+        <v>3.5371740000000001E-3</v>
+      </c>
+      <c r="AQ56">
+        <v>14701</v>
       </c>
       <c r="AR56">
         <v>27919283</v>
@@ -14932,17 +14932,17 @@
       <c r="BN56">
         <v>31</v>
       </c>
-      <c r="BO56" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP56" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ56" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR56" t="s">
-        <v>78</v>
+      <c r="BO56">
+        <v>3.5766071000000003E-2</v>
+      </c>
+      <c r="BP56">
+        <v>12414</v>
+      </c>
+      <c r="BQ56">
+        <v>1.2570164E-2</v>
+      </c>
+      <c r="BR56">
+        <v>12649</v>
       </c>
       <c r="BS56">
         <v>52711636</v>
@@ -15078,17 +15078,17 @@
       <c r="AM57">
         <v>37</v>
       </c>
-      <c r="AN57" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO57" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP57" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ57" t="s">
-        <v>78</v>
+      <c r="AN57">
+        <v>2.5593909999999998E-3</v>
+      </c>
+      <c r="AO57">
+        <v>30476</v>
+      </c>
+      <c r="AP57">
+        <v>2.0077300000000001E-3</v>
+      </c>
+      <c r="AQ57">
+        <v>19923</v>
       </c>
       <c r="AR57">
         <v>83789187</v>
@@ -15159,17 +15159,17 @@
       <c r="BN57">
         <v>39</v>
       </c>
-      <c r="BO57" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP57" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ57" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR57" t="s">
-        <v>78</v>
+      <c r="BO57">
+        <v>3.4815134999999997E-2</v>
+      </c>
+      <c r="BP57">
+        <v>27804</v>
+      </c>
+      <c r="BQ57">
+        <v>3.3030102999999998E-2</v>
+      </c>
+      <c r="BR57">
+        <v>441688</v>
       </c>
       <c r="BS57">
         <v>95590780</v>
@@ -15305,17 +15305,17 @@
       <c r="AM58">
         <v>588</v>
       </c>
-      <c r="AN58" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO58" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP58" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ58" t="s">
-        <v>78</v>
+      <c r="AN58">
+        <v>3.540868E-3</v>
+      </c>
+      <c r="AO58">
+        <v>3389</v>
+      </c>
+      <c r="AP58">
+        <v>3.5281499999999999E-3</v>
+      </c>
+      <c r="AQ58">
+        <v>657285</v>
       </c>
       <c r="AR58">
         <v>90048339</v>
@@ -15386,17 +15386,17 @@
       <c r="BN58">
         <v>2562</v>
       </c>
-      <c r="BO58" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP58" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ58" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR58" t="s">
-        <v>78</v>
+      <c r="BO58">
+        <v>3.4607283000000003E-2</v>
+      </c>
+      <c r="BP58">
+        <v>3323</v>
+      </c>
+      <c r="BQ58">
+        <v>3.7794519999999998E-2</v>
+      </c>
+      <c r="BR58">
+        <v>323195</v>
       </c>
       <c r="BS58">
         <v>101344199</v>
@@ -15532,17 +15532,17 @@
       <c r="AM59">
         <v>3237</v>
       </c>
-      <c r="AN59" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO59" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP59" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ59" t="s">
-        <v>78</v>
+      <c r="AN59">
+        <v>2.8705240000000002E-3</v>
+      </c>
+      <c r="AO59">
+        <v>6619</v>
+      </c>
+      <c r="AP59">
+        <v>2.1971669999999999E-3</v>
+      </c>
+      <c r="AQ59">
+        <v>17295</v>
       </c>
       <c r="AR59">
         <v>99090565</v>
@@ -15613,17 +15613,17 @@
       <c r="BN59">
         <v>3446</v>
       </c>
-      <c r="BO59" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP59" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ59" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR59" t="s">
-        <v>78</v>
+      <c r="BO59">
+        <v>3.0307916000000001E-2</v>
+      </c>
+      <c r="BP59">
+        <v>6203</v>
+      </c>
+      <c r="BQ59">
+        <v>3.1044214000000001E-2</v>
+      </c>
+      <c r="BR59">
+        <v>20197</v>
       </c>
       <c r="BS59">
         <v>39542244</v>
@@ -15759,17 +15759,17 @@
       <c r="AM60">
         <v>2112</v>
       </c>
-      <c r="AN60" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO60" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP60" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ60" t="s">
-        <v>78</v>
+      <c r="AN60">
+        <v>3.6126439999999999E-3</v>
+      </c>
+      <c r="AO60">
+        <v>9965</v>
+      </c>
+      <c r="AP60">
+        <v>3.6641220000000001E-3</v>
+      </c>
+      <c r="AQ60">
+        <v>3275</v>
       </c>
       <c r="AR60">
         <v>128741021</v>
@@ -15840,17 +15840,17 @@
       <c r="BN60">
         <v>2071</v>
       </c>
-      <c r="BO60" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP60" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ60" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR60" t="s">
-        <v>78</v>
+      <c r="BO60">
+        <v>2.4720149E-2</v>
+      </c>
+      <c r="BP60">
+        <v>6432</v>
+      </c>
+      <c r="BQ60">
+        <v>4.1095890000000003E-2</v>
+      </c>
+      <c r="BR60">
+        <v>3431</v>
       </c>
       <c r="BS60">
         <v>9243503</v>
@@ -15986,17 +15986,17 @@
       <c r="AM61">
         <v>136</v>
       </c>
-      <c r="AN61" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO61" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP61" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ61" t="s">
-        <v>78</v>
+      <c r="AN61">
+        <v>6.4013359999999997E-3</v>
+      </c>
+      <c r="AO61">
+        <v>3593</v>
+      </c>
+      <c r="AP61">
+        <v>4.7648109999999999E-3</v>
+      </c>
+      <c r="AQ61">
+        <v>281858</v>
       </c>
       <c r="AR61">
         <v>6997394</v>
@@ -16067,17 +16067,17 @@
       <c r="BN61">
         <v>141</v>
       </c>
-      <c r="BO61" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP61" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ61" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR61" t="s">
-        <v>78</v>
+      <c r="BO61">
+        <v>3.5599649999999997E-2</v>
+      </c>
+      <c r="BP61">
+        <v>3427</v>
+      </c>
+      <c r="BQ61">
+        <v>7.6657899999999996E-3</v>
+      </c>
+      <c r="BR61">
+        <v>259334</v>
       </c>
       <c r="BS61">
         <v>6923869</v>
@@ -16213,17 +16213,17 @@
       <c r="AM62">
         <v>3130</v>
       </c>
-      <c r="AN62" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO62" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP62" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ62" t="s">
-        <v>78</v>
+      <c r="AN62">
+        <v>2.728364E-3</v>
+      </c>
+      <c r="AO62">
+        <v>9163</v>
+      </c>
+      <c r="AP62">
+        <v>5.5073659999999997E-3</v>
+      </c>
+      <c r="AQ62">
+        <v>65367</v>
       </c>
       <c r="AR62">
         <v>11657076</v>
@@ -16294,17 +16294,17 @@
       <c r="BN62">
         <v>5124</v>
       </c>
-      <c r="BO62" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP62" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ62" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR62" t="s">
-        <v>78</v>
+      <c r="BO62">
+        <v>4.0974701000000002E-2</v>
+      </c>
+      <c r="BP62">
+        <v>6443</v>
+      </c>
+      <c r="BQ62">
+        <v>3.5327470999999999E-2</v>
+      </c>
+      <c r="BR62">
+        <v>270894</v>
       </c>
       <c r="BS62">
         <v>11220031</v>
@@ -16440,17 +16440,17 @@
       <c r="AM63">
         <v>623</v>
       </c>
-      <c r="AN63" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO63" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP63" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ63" t="s">
-        <v>78</v>
+      <c r="AN63">
+        <v>5.145798E-3</v>
+      </c>
+      <c r="AO63">
+        <v>46057</v>
+      </c>
+      <c r="AP63">
+        <v>3.9505180000000001E-3</v>
+      </c>
+      <c r="AQ63">
+        <v>34679</v>
       </c>
       <c r="AR63">
         <v>17192262</v>
@@ -16521,17 +16521,17 @@
       <c r="BN63">
         <v>4097</v>
       </c>
-      <c r="BO63" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP63" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ63" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR63" t="s">
-        <v>78</v>
+      <c r="BO63">
+        <v>3.5316609999999998E-2</v>
+      </c>
+      <c r="BP63">
+        <v>47598</v>
+      </c>
+      <c r="BQ63">
+        <v>3.7247276000000003E-2</v>
+      </c>
+      <c r="BR63">
+        <v>28539</v>
       </c>
       <c r="BS63">
         <v>16504478</v>
@@ -16667,17 +16667,17 @@
       <c r="AM64">
         <v>1944</v>
       </c>
-      <c r="AN64" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO64" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP64" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ64" t="s">
-        <v>78</v>
+      <c r="AN64">
+        <v>5.0877639999999998E-3</v>
+      </c>
+      <c r="AO64">
+        <v>3931</v>
+      </c>
+      <c r="AP64">
+        <v>4.0725559999999997E-3</v>
+      </c>
+      <c r="AQ64">
+        <v>352113</v>
       </c>
       <c r="AR64">
         <v>34467524</v>
@@ -16748,17 +16748,17 @@
       <c r="BN64">
         <v>2446</v>
       </c>
-      <c r="BO64" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP64" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ64" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR64" t="s">
-        <v>78</v>
+      <c r="BO64">
+        <v>3.5917902000000002E-2</v>
+      </c>
+      <c r="BP64">
+        <v>3508</v>
+      </c>
+      <c r="BQ64">
+        <v>3.2165157999999999E-2</v>
+      </c>
+      <c r="BR64">
+        <v>330544</v>
       </c>
       <c r="BS64">
         <v>33014778</v>
@@ -16894,17 +16894,17 @@
       <c r="AM65">
         <v>2431</v>
       </c>
-      <c r="AN65" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO65" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP65" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ65" t="s">
-        <v>78</v>
+      <c r="AN65">
+        <v>2.468048E-3</v>
+      </c>
+      <c r="AO65">
+        <v>11345</v>
+      </c>
+      <c r="AP65">
+        <v>3.596887E-3</v>
+      </c>
+      <c r="AQ65">
+        <v>15291</v>
       </c>
       <c r="AR65">
         <v>69367615</v>
@@ -16975,17 +16975,17 @@
       <c r="BN65">
         <v>2472</v>
       </c>
-      <c r="BO65" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP65" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ65" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR65" t="s">
-        <v>78</v>
+      <c r="BO65">
+        <v>4.2343512999999999E-2</v>
+      </c>
+      <c r="BP65">
+        <v>9234</v>
+      </c>
+      <c r="BQ65">
+        <v>4.0659341000000002E-2</v>
+      </c>
+      <c r="BR65">
+        <v>10920</v>
       </c>
       <c r="BS65">
         <v>60999986</v>
@@ -17121,17 +17121,17 @@
       <c r="AM66">
         <v>216</v>
       </c>
-      <c r="AN66" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO66" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP66" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ66" t="s">
-        <v>78</v>
+      <c r="AN66">
+        <v>3.0377550000000001E-3</v>
+      </c>
+      <c r="AO66">
+        <v>13826</v>
+      </c>
+      <c r="AP66">
+        <v>2.3131750000000002E-3</v>
+      </c>
+      <c r="AQ66">
+        <v>69169</v>
       </c>
       <c r="AR66">
         <v>92289719</v>
@@ -17202,17 +17202,17 @@
       <c r="BN66">
         <v>189</v>
       </c>
-      <c r="BO66" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP66" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ66" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR66" t="s">
-        <v>78</v>
+      <c r="BO66">
+        <v>3.3750000000000002E-2</v>
+      </c>
+      <c r="BP66">
+        <v>12000</v>
+      </c>
+      <c r="BQ66">
+        <v>2.4993311000000001E-2</v>
+      </c>
+      <c r="BR66">
+        <v>63537</v>
       </c>
       <c r="BS66">
         <v>85256931</v>
@@ -17348,17 +17348,17 @@
       <c r="AM67">
         <v>1829</v>
       </c>
-      <c r="AN67" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO67" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP67" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ67" t="s">
-        <v>78</v>
+      <c r="AN67">
+        <v>1.543162E-3</v>
+      </c>
+      <c r="AO67">
+        <v>32401</v>
+      </c>
+      <c r="AP67">
+        <v>3.5054330000000001E-3</v>
+      </c>
+      <c r="AQ67">
+        <v>63045</v>
       </c>
       <c r="AR67">
         <v>36058661</v>
@@ -17429,17 +17429,17 @@
       <c r="BN67">
         <v>72</v>
       </c>
-      <c r="BO67" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP67" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ67" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR67" t="s">
-        <v>78</v>
+      <c r="BO67">
+        <v>2.9909729999999999E-2</v>
+      </c>
+      <c r="BP67">
+        <v>24039</v>
+      </c>
+      <c r="BQ67">
+        <v>2.3818598E-2</v>
+      </c>
+      <c r="BR67">
+        <v>41984</v>
       </c>
       <c r="BS67">
         <v>29390783</v>
@@ -17575,17 +17575,17 @@
       <c r="AM68">
         <v>695</v>
       </c>
-      <c r="AN68" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO68" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP68" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ68" t="s">
-        <v>78</v>
+      <c r="AN68">
+        <v>2.1478729999999998E-3</v>
+      </c>
+      <c r="AO68">
+        <v>12105</v>
+      </c>
+      <c r="AP68">
+        <v>3.9803659999999999E-3</v>
+      </c>
+      <c r="AQ68">
+        <v>104513</v>
       </c>
       <c r="AR68">
         <v>74507984</v>
@@ -17656,17 +17656,17 @@
       <c r="BN68">
         <v>3203</v>
       </c>
-      <c r="BO68" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP68" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ68" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR68" t="s">
-        <v>78</v>
+      <c r="BO68">
+        <v>3.3637001E-2</v>
+      </c>
+      <c r="BP68">
+        <v>11416</v>
+      </c>
+      <c r="BQ68">
+        <v>3.4715006999999999E-2</v>
+      </c>
+      <c r="BR68">
+        <v>133775</v>
       </c>
       <c r="BS68">
         <v>67337060</v>
@@ -17802,17 +17802,17 @@
       <c r="AM69">
         <v>1143</v>
       </c>
-      <c r="AN69" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO69" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP69" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ69" t="s">
-        <v>78</v>
+      <c r="AN69">
+        <v>3.1274430000000001E-3</v>
+      </c>
+      <c r="AO69">
+        <v>2558</v>
+      </c>
+      <c r="AP69">
+        <v>4.5509959999999999E-3</v>
+      </c>
+      <c r="AQ69">
+        <v>193584</v>
       </c>
       <c r="AR69">
         <v>91466828</v>
@@ -17883,17 +17883,17 @@
       <c r="BN69">
         <v>309</v>
       </c>
-      <c r="BO69" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP69" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ69" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR69" t="s">
-        <v>78</v>
+      <c r="BO69">
+        <v>4.1650597999999997E-2</v>
+      </c>
+      <c r="BP69">
+        <v>2593</v>
+      </c>
+      <c r="BQ69">
+        <v>3.0102398999999998E-2</v>
+      </c>
+      <c r="BR69">
+        <v>328811</v>
       </c>
       <c r="BS69">
         <v>84010757</v>
@@ -18029,17 +18029,17 @@
       <c r="AM70">
         <v>335</v>
       </c>
-      <c r="AN70" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO70" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP70" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ70" t="s">
-        <v>78</v>
+      <c r="AN70">
+        <v>3.782971E-3</v>
+      </c>
+      <c r="AO70">
+        <v>19297</v>
+      </c>
+      <c r="AP70">
+        <v>4.1641630000000002E-3</v>
+      </c>
+      <c r="AQ70">
+        <v>48269</v>
       </c>
       <c r="AR70">
         <v>48735227</v>
@@ -18110,17 +18110,17 @@
       <c r="BN70">
         <v>3582</v>
       </c>
-      <c r="BO70" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP70" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ70" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR70" t="s">
-        <v>78</v>
+      <c r="BO70">
+        <v>2.9612756E-2</v>
+      </c>
+      <c r="BP70">
+        <v>16243</v>
+      </c>
+      <c r="BQ70">
+        <v>3.3954498999999999E-2</v>
+      </c>
+      <c r="BR70">
+        <v>155031</v>
       </c>
       <c r="BS70">
         <v>37311012</v>
@@ -18256,17 +18256,17 @@
       <c r="AM71">
         <v>3017</v>
       </c>
-      <c r="AN71" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO71" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP71" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ71" t="s">
-        <v>78</v>
+      <c r="AN71">
+        <v>2.8259230000000002E-3</v>
+      </c>
+      <c r="AO71">
+        <v>5308</v>
+      </c>
+      <c r="AP71">
+        <v>3.0180340000000002E-3</v>
+      </c>
+      <c r="AQ71">
+        <v>525839</v>
       </c>
       <c r="AR71">
         <v>43282896</v>
@@ -18337,17 +18337,17 @@
       <c r="BN71">
         <v>2971</v>
       </c>
-      <c r="BO71" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP71" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ71" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR71" t="s">
-        <v>78</v>
+      <c r="BO71">
+        <v>4.3730242000000003E-2</v>
+      </c>
+      <c r="BP71">
+        <v>3796</v>
+      </c>
+      <c r="BQ71">
+        <v>2.6505603999999999E-2</v>
+      </c>
+      <c r="BR71">
+        <v>533623</v>
       </c>
       <c r="BS71">
         <v>42109819</v>
@@ -18483,17 +18483,17 @@
       <c r="AM72">
         <v>4567</v>
       </c>
-      <c r="AN72" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO72" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP72" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ72" t="s">
-        <v>78</v>
+      <c r="AN72">
+        <v>3.2930849999999998E-3</v>
+      </c>
+      <c r="AO72">
+        <v>9110</v>
+      </c>
+      <c r="AP72">
+        <v>2.8614489999999999E-3</v>
+      </c>
+      <c r="AQ72">
+        <v>45781</v>
       </c>
       <c r="AR72">
         <v>26852249</v>
@@ -18564,17 +18564,17 @@
       <c r="BN72">
         <v>4716</v>
       </c>
-      <c r="BO72" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP72" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ72" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR72" t="s">
-        <v>78</v>
+      <c r="BO72">
+        <v>2.0094830000000001E-2</v>
+      </c>
+      <c r="BP72">
+        <v>8858</v>
+      </c>
+      <c r="BQ72">
+        <v>3.4863516999999997E-2</v>
+      </c>
+      <c r="BR72">
+        <v>17841</v>
       </c>
       <c r="BS72">
         <v>58514804</v>
@@ -18710,17 +18710,17 @@
       <c r="AM73">
         <v>2171</v>
       </c>
-      <c r="AN73" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO73" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP73" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ73" t="s">
-        <v>78</v>
+      <c r="AN73">
+        <v>2.3397890000000001E-3</v>
+      </c>
+      <c r="AO73">
+        <v>7693</v>
+      </c>
+      <c r="AP73">
+        <v>4.9607280000000002E-3</v>
+      </c>
+      <c r="AQ73">
+        <v>4838</v>
       </c>
       <c r="AR73">
         <v>69983968</v>
@@ -18791,17 +18791,17 @@
       <c r="BN73">
         <v>906</v>
       </c>
-      <c r="BO73" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP73" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ73" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR73" t="s">
-        <v>78</v>
+      <c r="BO73">
+        <v>3.6623553000000003E-2</v>
+      </c>
+      <c r="BP73">
+        <v>7345</v>
+      </c>
+      <c r="BQ73">
+        <v>2.6146676000000001E-2</v>
+      </c>
+      <c r="BR73">
+        <v>20385</v>
       </c>
       <c r="BS73">
         <v>65260950</v>
@@ -18937,17 +18937,17 @@
       <c r="AM74">
         <v>4343</v>
       </c>
-      <c r="AN74" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO74" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP74" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ74" t="s">
-        <v>78</v>
+      <c r="AN74">
+        <v>2.783401E-3</v>
+      </c>
+      <c r="AO74">
+        <v>3952</v>
+      </c>
+      <c r="AP74">
+        <v>3.8994989999999998E-3</v>
+      </c>
+      <c r="AQ74">
+        <v>162585</v>
       </c>
       <c r="AR74">
         <v>89168088</v>
@@ -19018,17 +19018,17 @@
       <c r="BN74">
         <v>4352</v>
       </c>
-      <c r="BO74" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP74" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ74" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR74" t="s">
-        <v>78</v>
+      <c r="BO74">
+        <v>3.4274194000000001E-2</v>
+      </c>
+      <c r="BP74">
+        <v>3968</v>
+      </c>
+      <c r="BQ74">
+        <v>3.7157351999999998E-2</v>
+      </c>
+      <c r="BR74">
+        <v>139757</v>
       </c>
       <c r="BS74">
         <v>83685459</v>
@@ -19164,17 +19164,17 @@
       <c r="AM75">
         <v>2616</v>
       </c>
-      <c r="AN75" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO75" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP75" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ75" t="s">
-        <v>78</v>
+      <c r="AN75">
+        <v>4.0816330000000003E-3</v>
+      </c>
+      <c r="AO75">
+        <v>3675</v>
+      </c>
+      <c r="AP75">
+        <v>5.1814199999999999E-3</v>
+      </c>
+      <c r="AQ75">
+        <v>71409</v>
       </c>
       <c r="AR75">
         <v>130683340</v>
@@ -19245,17 +19245,17 @@
       <c r="BN75">
         <v>2801</v>
       </c>
-      <c r="BO75" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP75" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ75" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR75" t="s">
-        <v>78</v>
+      <c r="BO75">
+        <v>5.0863421999999998E-2</v>
+      </c>
+      <c r="BP75">
+        <v>3185</v>
+      </c>
+      <c r="BQ75">
+        <v>3.2033195E-2</v>
+      </c>
+      <c r="BR75">
+        <v>66275</v>
       </c>
       <c r="BS75">
         <v>124081006</v>
@@ -19391,17 +19391,17 @@
       <c r="AM76">
         <v>2311</v>
       </c>
-      <c r="AN76" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO76" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP76" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ76" t="s">
-        <v>78</v>
+      <c r="AN76">
+        <v>3.380058E-3</v>
+      </c>
+      <c r="AO76">
+        <v>10059</v>
+      </c>
+      <c r="AP76">
+        <v>2.5997049999999999E-3</v>
+      </c>
+      <c r="AQ76">
+        <v>368888</v>
       </c>
       <c r="AR76">
         <v>48801242</v>
@@ -19472,17 +19472,17 @@
       <c r="BN76">
         <v>2274</v>
       </c>
-      <c r="BO76" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP76" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ76" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR76" t="s">
-        <v>78</v>
+      <c r="BO76">
+        <v>4.4839956E-2</v>
+      </c>
+      <c r="BP76">
+        <v>7248</v>
+      </c>
+      <c r="BQ76">
+        <v>2.3848101999999999E-2</v>
+      </c>
+      <c r="BR76">
+        <v>306733</v>
       </c>
       <c r="BS76">
         <v>26832192</v>
@@ -19618,17 +19618,17 @@
       <c r="AM77">
         <v>733</v>
       </c>
-      <c r="AN77" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO77" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP77" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ77" t="s">
-        <v>78</v>
+      <c r="AN77">
+        <v>3.3072969999999998E-3</v>
+      </c>
+      <c r="AO77">
+        <v>14211</v>
+      </c>
+      <c r="AP77">
+        <v>4.337947E-3</v>
+      </c>
+      <c r="AQ77">
+        <v>29046</v>
       </c>
       <c r="AR77">
         <v>51183472</v>
@@ -19699,17 +19699,17 @@
       <c r="BN77">
         <v>808</v>
       </c>
-      <c r="BO77" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP77" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ77" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR77" t="s">
-        <v>78</v>
+      <c r="BO77">
+        <v>3.1298062000000001E-2</v>
+      </c>
+      <c r="BP77">
+        <v>13004</v>
+      </c>
+      <c r="BQ77">
+        <v>3.6823755E-2</v>
+      </c>
+      <c r="BR77">
+        <v>25527</v>
       </c>
       <c r="BS77">
         <v>29150715</v>
@@ -19845,17 +19845,17 @@
       <c r="AM78">
         <v>3733</v>
       </c>
-      <c r="AN78" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO78" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP78" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ78" t="s">
-        <v>78</v>
+      <c r="AN78">
+        <v>1.653348E-3</v>
+      </c>
+      <c r="AO78">
+        <v>14516</v>
+      </c>
+      <c r="AP78">
+        <v>2.646392E-3</v>
+      </c>
+      <c r="AQ78">
+        <v>187425</v>
       </c>
       <c r="AR78">
         <v>98214962</v>
@@ -19926,17 +19926,17 @@
       <c r="BN78">
         <v>3769</v>
       </c>
-      <c r="BO78" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP78" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ78" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR78" t="s">
-        <v>78</v>
+      <c r="BO78">
+        <v>3.0803170000000001E-2</v>
+      </c>
+      <c r="BP78">
+        <v>12239</v>
+      </c>
+      <c r="BQ78">
+        <v>5.0314465000000003E-2</v>
+      </c>
+      <c r="BR78">
+        <v>477</v>
       </c>
       <c r="BS78">
         <v>76163874</v>
@@ -20072,17 +20072,17 @@
       <c r="AM79">
         <v>196</v>
       </c>
-      <c r="AN79" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO79" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP79" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ79" t="s">
-        <v>78</v>
+      <c r="AN79">
+        <v>3.8345340000000001E-3</v>
+      </c>
+      <c r="AO79">
+        <v>8606</v>
+      </c>
+      <c r="AP79">
+        <v>3.8363170000000001E-3</v>
+      </c>
+      <c r="AQ79">
+        <v>3910</v>
       </c>
       <c r="AR79">
         <v>49440621</v>
@@ -20153,17 +20153,17 @@
       <c r="BN79">
         <v>2384</v>
       </c>
-      <c r="BO79" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP79" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ79" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR79" t="s">
-        <v>78</v>
+      <c r="BO79">
+        <v>5.9559261000000002E-2</v>
+      </c>
+      <c r="BP79">
+        <v>5037</v>
+      </c>
+      <c r="BQ79">
+        <v>3.4805618000000003E-2</v>
+      </c>
+      <c r="BR79">
+        <v>4913</v>
       </c>
       <c r="BS79">
         <v>27307912</v>
@@ -20299,17 +20299,17 @@
       <c r="AM80">
         <v>4539</v>
       </c>
-      <c r="AN80" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO80" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP80" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ80" t="s">
-        <v>78</v>
+      <c r="AN80">
+        <v>3.4465780000000001E-3</v>
+      </c>
+      <c r="AO80">
+        <v>6093</v>
+      </c>
+      <c r="AP80">
+        <v>4.3657790000000002E-3</v>
+      </c>
+      <c r="AQ80">
+        <v>257686</v>
       </c>
       <c r="AR80">
         <v>23742860</v>
@@ -20380,17 +20380,17 @@
       <c r="BN80">
         <v>343</v>
       </c>
-      <c r="BO80" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP80" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ80" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR80" t="s">
-        <v>78</v>
+      <c r="BO80">
+        <v>2.7422926E-2</v>
+      </c>
+      <c r="BP80">
+        <v>5871</v>
+      </c>
+      <c r="BQ80">
+        <v>7.8563750000000005E-3</v>
+      </c>
+      <c r="BR80">
+        <v>165598</v>
       </c>
       <c r="BS80">
         <v>55532540</v>
@@ -20526,17 +20526,17 @@
       <c r="AM81">
         <v>936</v>
       </c>
-      <c r="AN81" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO81" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP81" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ81" t="s">
-        <v>78</v>
+      <c r="AN81">
+        <v>2.5412960000000002E-3</v>
+      </c>
+      <c r="AO81">
+        <v>2361</v>
+      </c>
+      <c r="AP81">
+        <v>4.0423350000000002E-3</v>
+      </c>
+      <c r="AQ81">
+        <v>59619</v>
       </c>
       <c r="AR81">
         <v>74839731</v>
@@ -20607,17 +20607,17 @@
       <c r="BN81">
         <v>2026</v>
       </c>
-      <c r="BO81" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP81" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ81" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR81" t="s">
-        <v>78</v>
+      <c r="BO81">
+        <v>3.0359819999999999E-2</v>
+      </c>
+      <c r="BP81">
+        <v>2668</v>
+      </c>
+      <c r="BQ81">
+        <v>4.0970669000000001E-2</v>
+      </c>
+      <c r="BR81">
+        <v>30412</v>
       </c>
       <c r="BS81">
         <v>6247526</v>
@@ -20753,17 +20753,17 @@
       <c r="AM82">
         <v>511</v>
       </c>
-      <c r="AN82" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO82" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP82" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ82" t="s">
-        <v>78</v>
+      <c r="AN82">
+        <v>3.5847050000000001E-3</v>
+      </c>
+      <c r="AO82">
+        <v>7532</v>
+      </c>
+      <c r="AP82">
+        <v>3.9709619999999998E-3</v>
+      </c>
+      <c r="AQ82">
+        <v>32234</v>
       </c>
       <c r="AR82">
         <v>28188121</v>
@@ -20834,17 +20834,17 @@
       <c r="BN82">
         <v>96</v>
       </c>
-      <c r="BO82" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP82" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ82" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR82" t="s">
-        <v>78</v>
+      <c r="BO82">
+        <v>4.0908449999999999E-2</v>
+      </c>
+      <c r="BP82">
+        <v>7089</v>
+      </c>
+      <c r="BQ82">
+        <v>4.2408326000000003E-2</v>
+      </c>
+      <c r="BR82">
+        <v>30843</v>
       </c>
       <c r="BS82">
         <v>25460384</v>
@@ -20980,17 +20980,17 @@
       <c r="AM83">
         <v>120</v>
       </c>
-      <c r="AN83" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO83" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP83" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ83" t="s">
-        <v>78</v>
+      <c r="AN83">
+        <v>3.9556959999999999E-3</v>
+      </c>
+      <c r="AO83">
+        <v>5056</v>
+      </c>
+      <c r="AP83">
+        <v>2.9591119999999999E-3</v>
+      </c>
+      <c r="AQ83">
+        <v>61167</v>
       </c>
       <c r="AR83">
         <v>19033939</v>
@@ -21061,17 +21061,17 @@
       <c r="BN83">
         <v>133</v>
       </c>
-      <c r="BO83" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP83" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ83" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR83" t="s">
-        <v>78</v>
+      <c r="BO83">
+        <v>1.3030887999999999E-2</v>
+      </c>
+      <c r="BP83">
+        <v>4144</v>
+      </c>
+      <c r="BQ83">
+        <v>2.0846747999999998E-2</v>
+      </c>
+      <c r="BR83">
+        <v>49696</v>
       </c>
       <c r="BS83">
         <v>67654605</v>
@@ -21207,17 +21207,17 @@
       <c r="AM84">
         <v>1287</v>
       </c>
-      <c r="AN84" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO84" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP84" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ84" t="s">
-        <v>78</v>
+      <c r="AN84">
+        <v>6.1823800000000003E-3</v>
+      </c>
+      <c r="AO84">
+        <v>5176</v>
+      </c>
+      <c r="AP84">
+        <v>3.6308619999999999E-3</v>
+      </c>
+      <c r="AQ84">
+        <v>6610</v>
       </c>
       <c r="AR84">
         <v>19400217</v>
@@ -21288,17 +21288,17 @@
       <c r="BN84">
         <v>2392</v>
       </c>
-      <c r="BO84" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP84" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ84" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR84" t="s">
-        <v>78</v>
+      <c r="BO84">
+        <v>3.1469274999999998E-2</v>
+      </c>
+      <c r="BP84">
+        <v>4703</v>
+      </c>
+      <c r="BQ84">
+        <v>3.5005412999999999E-2</v>
+      </c>
+      <c r="BR84">
+        <v>5542</v>
       </c>
       <c r="BS84">
         <v>56936654</v>
@@ -21434,17 +21434,17 @@
       <c r="AM85">
         <v>1945</v>
       </c>
-      <c r="AN85" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO85" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP85" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ85" t="s">
-        <v>78</v>
+      <c r="AN85">
+        <v>2.8916660000000002E-3</v>
+      </c>
+      <c r="AO85">
+        <v>9683</v>
+      </c>
+      <c r="AP85">
+        <v>3.971034E-3</v>
+      </c>
+      <c r="AQ85">
+        <v>206999</v>
       </c>
       <c r="AR85">
         <v>44918379</v>
@@ -21515,17 +21515,17 @@
       <c r="BN85">
         <v>2717</v>
       </c>
-      <c r="BO85" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP85" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ85" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR85" t="s">
-        <v>78</v>
+      <c r="BO85">
+        <v>3.1734471E-2</v>
+      </c>
+      <c r="BP85">
+        <v>9611</v>
+      </c>
+      <c r="BQ85">
+        <v>3.4436794E-2</v>
+      </c>
+      <c r="BR85">
+        <v>204055</v>
       </c>
       <c r="BS85">
         <v>32011447</v>
@@ -21661,17 +21661,17 @@
       <c r="AM86">
         <v>18</v>
       </c>
-      <c r="AN86" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO86" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP86" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ86" t="s">
-        <v>78</v>
+      <c r="AN86">
+        <v>2.6685390000000002E-3</v>
+      </c>
+      <c r="AO86">
+        <v>7120</v>
+      </c>
+      <c r="AP86">
+        <v>3.579792E-3</v>
+      </c>
+      <c r="AQ86">
+        <v>67043</v>
       </c>
       <c r="AR86">
         <v>58872229</v>
@@ -21742,17 +21742,17 @@
       <c r="BN86">
         <v>3237</v>
       </c>
-      <c r="BO86" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP86" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ86" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR86" t="s">
-        <v>78</v>
+      <c r="BO86">
+        <v>3.5043097000000002E-2</v>
+      </c>
+      <c r="BP86">
+        <v>7077</v>
+      </c>
+      <c r="BQ86">
+        <v>3.6189428000000003E-2</v>
+      </c>
+      <c r="BR86">
+        <v>61786</v>
       </c>
       <c r="BS86">
         <v>17313752</v>
@@ -21888,17 +21888,17 @@
       <c r="AM87">
         <v>1230</v>
       </c>
-      <c r="AN87" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO87" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP87" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ87" t="s">
-        <v>78</v>
+      <c r="AN87">
+        <v>3.1491050000000001E-3</v>
+      </c>
+      <c r="AO87">
+        <v>28262</v>
+      </c>
+      <c r="AP87">
+        <v>3.8418609999999998E-3</v>
+      </c>
+      <c r="AQ87">
+        <v>38523</v>
       </c>
       <c r="AR87">
         <v>35753432</v>
@@ -21969,17 +21969,17 @@
       <c r="BN87">
         <v>2128</v>
       </c>
-      <c r="BO87" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP87" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ87" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR87" t="s">
-        <v>78</v>
+      <c r="BO87">
+        <v>3.3796037000000001E-2</v>
+      </c>
+      <c r="BP87">
+        <v>177003</v>
+      </c>
+      <c r="BQ87">
+        <v>3.6225472000000002E-2</v>
+      </c>
+      <c r="BR87">
+        <v>38426</v>
       </c>
       <c r="BS87">
         <v>25297869</v>
@@ -22115,17 +22115,17 @@
       <c r="AM88">
         <v>960</v>
       </c>
-      <c r="AN88" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO88" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP88" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ88" t="s">
-        <v>78</v>
+      <c r="AN88">
+        <v>5.0975660000000004E-3</v>
+      </c>
+      <c r="AO88">
+        <v>18244</v>
+      </c>
+      <c r="AP88">
+        <v>5.0839229999999997E-3</v>
+      </c>
+      <c r="AQ88">
+        <v>39143</v>
       </c>
       <c r="AR88">
         <v>40937422</v>
@@ -22196,17 +22196,17 @@
       <c r="BN88">
         <v>976</v>
       </c>
-      <c r="BO88" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP88" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ88" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR88" t="s">
-        <v>78</v>
+      <c r="BO88">
+        <v>3.5714285999999998E-2</v>
+      </c>
+      <c r="BP88">
+        <v>224</v>
+      </c>
+      <c r="BQ88">
+        <v>3.7379239000000002E-2</v>
+      </c>
+      <c r="BR88">
+        <v>30846</v>
       </c>
       <c r="BS88">
         <v>30337549</v>
@@ -22342,17 +22342,17 @@
       <c r="AM89">
         <v>3653</v>
       </c>
-      <c r="AN89" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO89" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP89" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ89" t="s">
-        <v>78</v>
+      <c r="AN89">
+        <v>3.1850619999999998E-3</v>
+      </c>
+      <c r="AO89">
+        <v>73154</v>
+      </c>
+      <c r="AP89">
+        <v>2.48825E-3</v>
+      </c>
+      <c r="AQ89">
+        <v>7234</v>
       </c>
       <c r="AR89">
         <v>52466418</v>
@@ -22423,17 +22423,17 @@
       <c r="BN89">
         <v>3744</v>
       </c>
-      <c r="BO89" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP89" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ89" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR89" t="s">
-        <v>78</v>
+      <c r="BO89">
+        <v>3.0673639999999999E-2</v>
+      </c>
+      <c r="BP89">
+        <v>25429</v>
+      </c>
+      <c r="BQ89">
+        <v>2.6541333E-2</v>
+      </c>
+      <c r="BR89">
+        <v>7234</v>
       </c>
       <c r="BS89">
         <v>40235167</v>
@@ -22569,17 +22569,17 @@
       <c r="AM90">
         <v>227</v>
       </c>
-      <c r="AN90" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO90" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP90" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ90" t="s">
-        <v>78</v>
+      <c r="AN90">
+        <v>3.6889779999999999E-3</v>
+      </c>
+      <c r="AO90">
+        <v>24397</v>
+      </c>
+      <c r="AP90">
+        <v>3.4159289999999998E-3</v>
+      </c>
+      <c r="AQ90">
+        <v>94557</v>
       </c>
       <c r="AR90">
         <v>8822075</v>
@@ -22650,17 +22650,17 @@
       <c r="BN90">
         <v>3347</v>
       </c>
-      <c r="BO90" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP90" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ90" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR90" t="s">
-        <v>78</v>
+      <c r="BO90">
+        <v>3.8011695999999998E-2</v>
+      </c>
+      <c r="BP90">
+        <v>22572</v>
+      </c>
+      <c r="BQ90">
+        <v>3.4246263999999998E-2</v>
+      </c>
+      <c r="BR90">
+        <v>131810</v>
       </c>
       <c r="BS90">
         <v>29078618</v>
@@ -22796,17 +22796,17 @@
       <c r="AM91">
         <v>2939</v>
       </c>
-      <c r="AN91" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO91" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP91" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ91" t="s">
-        <v>78</v>
+      <c r="AN91">
+        <v>4.1407869999999999E-3</v>
+      </c>
+      <c r="AO91">
+        <v>5796</v>
+      </c>
+      <c r="AP91">
+        <v>2.2026429999999998E-3</v>
+      </c>
+      <c r="AQ91">
+        <v>5902</v>
       </c>
       <c r="AR91">
         <v>33734507</v>
@@ -22877,17 +22877,17 @@
       <c r="BN91">
         <v>2998</v>
       </c>
-      <c r="BO91" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP91" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ91" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR91" t="s">
-        <v>78</v>
+      <c r="BO91">
+        <v>4.7015886999999999E-2</v>
+      </c>
+      <c r="BP91">
+        <v>4658</v>
+      </c>
+      <c r="BQ91">
+        <v>4.5370559999999997E-2</v>
+      </c>
+      <c r="BR91">
+        <v>4871</v>
       </c>
       <c r="BS91">
         <v>57451487</v>
@@ -23023,17 +23023,17 @@
       <c r="AM92">
         <v>2604</v>
       </c>
-      <c r="AN92" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO92" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP92" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ92" t="s">
-        <v>78</v>
+      <c r="AN92">
+        <v>3.854915E-3</v>
+      </c>
+      <c r="AO92">
+        <v>11414</v>
+      </c>
+      <c r="AP92">
+        <v>4.8852519999999997E-3</v>
+      </c>
+      <c r="AQ92">
+        <v>98869</v>
       </c>
       <c r="AR92">
         <v>35258076</v>
@@ -23104,17 +23104,17 @@
       <c r="BN92">
         <v>2628</v>
       </c>
-      <c r="BO92" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP92" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ92" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR92" t="s">
-        <v>78</v>
+      <c r="BO92">
+        <v>4.1421828000000001E-2</v>
+      </c>
+      <c r="BP92">
+        <v>10381</v>
+      </c>
+      <c r="BQ92">
+        <v>3.7755225000000003E-2</v>
+      </c>
+      <c r="BR92">
+        <v>91537</v>
       </c>
       <c r="BS92">
         <v>25555868</v>
@@ -23250,17 +23250,17 @@
       <c r="AM93">
         <v>171</v>
       </c>
-      <c r="AN93" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO93" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP93" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ93" t="s">
-        <v>78</v>
+      <c r="AN93">
+        <v>4.156936E-3</v>
+      </c>
+      <c r="AO93">
+        <v>21410</v>
+      </c>
+      <c r="AP93">
+        <v>4.3761520000000003E-3</v>
+      </c>
+      <c r="AQ93">
+        <v>475989</v>
       </c>
       <c r="AR93">
         <v>26030307</v>
@@ -23331,17 +23331,17 @@
       <c r="BN93">
         <v>2802</v>
       </c>
-      <c r="BO93" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP93" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ93" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR93" t="s">
-        <v>78</v>
+      <c r="BO93">
+        <v>3.6487060000000002E-2</v>
+      </c>
+      <c r="BP93">
+        <v>21213</v>
+      </c>
+      <c r="BQ93">
+        <v>3.2980849E-2</v>
+      </c>
+      <c r="BR93">
+        <v>466877</v>
       </c>
       <c r="BS93">
         <v>10085523</v>
